--- a/Documents/任务过程/A组/第二次任务/DataBase功能点分析.xlsx
+++ b/Documents/任务过程/A组/第二次任务/DataBase功能点分析.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Exercise\Github\DatabaseProject\Documents\任务过程\A组\第二次任务\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Exercise\Github_Fork\DatabaseProject\Documents\任务过程\A组\第二次任务\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFC4E91-9A16-480E-B4BD-E7D545825F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750A132D-C8BC-4207-87EF-27AAE3415B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{64DEEB92-EE1E-4766-A91A-565B606ED293}"/>
+    <workbookView xWindow="4116" yWindow="1896" windowWidth="16584" windowHeight="10464" xr2:uid="{64DEEB92-EE1E-4766-A91A-565B606ED293}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,10 @@
   </si>
   <si>
     <t>管理排行榜信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周成杰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +611,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -652,6 +656,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
@@ -663,6 +670,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2152814</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>

--- a/Documents/任务过程/A组/第二次任务/DataBase功能点分析.xlsx
+++ b/Documents/任务过程/A组/第二次任务/DataBase功能点分析.xlsx
@@ -1,265 +1,438 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Exercise\Github_Fork\DatabaseProject\Documents\任务过程\A组\第二次任务\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750A132D-C8BC-4207-87EF-27AAE3415B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4116" yWindow="1896" windowWidth="16584" windowHeight="10464" xr2:uid="{64DEEB92-EE1E-4766-A91A-565B606ED293}"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目选题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目的功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS：</t>
   </si>
   <si>
     <t>用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>数据表</t>
   </si>
   <si>
     <t>学生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>用户信息</t>
+  </si>
+  <si>
+    <t>周成杰</t>
   </si>
   <si>
     <t>校管理人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>创建花园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具包</t>
+  </si>
+  <si>
+    <t>王浩</t>
   </si>
   <si>
     <t>分享花园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物库</t>
   </si>
   <si>
     <t>参观花园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料库</t>
+  </si>
+  <si>
+    <t>用户表</t>
   </si>
   <si>
     <t>打分排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品库</t>
+  </si>
+  <si>
+    <t>花园表</t>
+  </si>
+  <si>
+    <t>发布评论</t>
+  </si>
+  <si>
+    <t>积分信息</t>
+  </si>
+  <si>
+    <t>资源表</t>
   </si>
   <si>
     <t>维护管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论和反馈</t>
+  </si>
+  <si>
+    <t>评论表</t>
   </si>
   <si>
     <t>申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工具包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>植物库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饰品库</t>
-  </si>
-  <si>
-    <t>积分信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论和反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花园表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+  </si>
+  <si>
+    <t>花园积分表</t>
+  </si>
+  <si>
+    <t>关联信息</t>
   </si>
   <si>
     <t>申请表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据备份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询个人的评分信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志表</t>
+  </si>
+  <si>
+    <t>功能：</t>
+  </si>
+  <si>
+    <t>管理人员</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>注册个人账号</t>
+  </si>
+  <si>
+    <t>注册管理员账号</t>
+  </si>
+  <si>
+    <t>登录个人账号</t>
+  </si>
+  <si>
+    <t>登录管理员账号</t>
+  </si>
+  <si>
+    <t>增删改账号信息</t>
+  </si>
+  <si>
+    <t>增删改 个人账号</t>
+  </si>
+  <si>
+    <t>增删改 所有账号</t>
+  </si>
+  <si>
+    <t>查询账号信息</t>
+  </si>
+  <si>
+    <t>查询 个人账号</t>
+  </si>
+  <si>
+    <t>查询 所有账号</t>
+  </si>
+  <si>
+    <t>增删改花园信息</t>
+  </si>
+  <si>
+    <t>增删改 个人花园</t>
+  </si>
+  <si>
+    <t>删除 所有花园</t>
+  </si>
+  <si>
+    <t>查询花园信息</t>
+  </si>
+  <si>
+    <t>查询 所有花园</t>
+  </si>
+  <si>
+    <t>增删改资源信息</t>
+  </si>
+  <si>
+    <t>查询资源信息</t>
+  </si>
+  <si>
+    <t>分享个人花园</t>
+  </si>
+  <si>
+    <t>参观他人的花园</t>
+  </si>
+  <si>
+    <t>增删改评分</t>
+  </si>
+  <si>
+    <t>增删改 他人的花园</t>
+  </si>
+  <si>
+    <t>查询评分</t>
+  </si>
+  <si>
+    <t>查看 所有花园</t>
+  </si>
+  <si>
+    <t>增删改评论</t>
+  </si>
+  <si>
+    <t>查询评论</t>
+  </si>
+  <si>
+    <t>增删改排行榜信息</t>
+  </si>
+  <si>
+    <t>增删改 排行榜信息</t>
+  </si>
+  <si>
+    <t>查询排行榜信息</t>
+  </si>
+  <si>
+    <t>查询 排行榜信息</t>
+  </si>
+  <si>
+    <t>增删改申请</t>
+  </si>
+  <si>
+    <t>增删改 个人的申请信息</t>
+  </si>
+  <si>
+    <t>（管理员对申请作出回应并通知该申请人）</t>
+  </si>
+  <si>
+    <t>查询申请</t>
+  </si>
+  <si>
+    <t>查询 个人的申请信息</t>
+  </si>
+  <si>
+    <t>查询 所有人的申请信息</t>
+  </si>
+  <si>
+    <t>增删改通知</t>
+  </si>
+  <si>
+    <t>增删改 通知信息</t>
+  </si>
+  <si>
+    <t>查询通知</t>
+  </si>
+  <si>
+    <t>查询 通知信息</t>
   </si>
   <si>
     <t>查询个人的活动日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询删除个人评论信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询个人的申请信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询全部的花园信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询排行榜信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>花园积分表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删改查个人账号信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找或删除所有人的账号信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理花园信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理资源信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理申请信息（志愿申请等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRS：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增删改查个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>授予修改收回权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理积分信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理排行榜信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周成杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,12 +441,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -281,31 +640,421 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,7 +1103,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -387,26 +1136,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -439,23 +1171,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,36 +1312,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AC0EEF-49CF-4B86-8BB0-1E0564ECA51A}">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="33.109375" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="16.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="18.712962962963" customWidth="1"/>
+    <col min="7" max="7" width="33.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="40.4259259259259" customWidth="1"/>
+    <col min="9" max="9" width="17.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="17.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,203 +1350,391 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2152814</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2051475</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H4" t="s">
-        <v>10</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="8:11">
       <c r="H5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="8:11">
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:11">
       <c r="H7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="8:11">
       <c r="H8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="8:11">
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="9:11">
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="9:11">
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
+      <c r="G14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
+      <c r="F16" s="5"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="H17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="H18" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
+    <row r="20" spans="6:8">
+      <c r="F20" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="G20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" s="5"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="30" spans="6:8">
+      <c r="F30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8">
+      <c r="F31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8">
+      <c r="F32" s="5"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" s="5"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="F36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8">
+      <c r="F37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8">
+      <c r="F39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8">
+      <c r="F40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8">
+      <c r="F41" s="5"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="6:8">
+      <c r="F42" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8">
+      <c r="F43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="7:8">
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>